--- a/src/analysis_examples/circadb/results_jtk/cosinor_10421917_pabpc4_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10421917_pabpc4_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.3052421366452738, 0.46509201559793023]</t>
+          <t>[0.3095956629652703, 0.4607384892779337]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.864622456437814e-09</v>
+        <v>6.926268447671191e-10</v>
       </c>
       <c r="N2" t="n">
-        <v>1.864622456437814e-09</v>
+        <v>6.926268447671191e-10</v>
       </c>
       <c r="O2" t="n">
         <v>-0.3647895373537695</v>
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.371232724203678, 0.4596184029122829]</t>
+          <t>[0.3712409110720311, 0.45961021604392976]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>5.995204332975845e-15</v>
+        <v>5.773159728050814e-15</v>
       </c>
       <c r="V2" t="n">
-        <v>5.995204332975845e-15</v>
+        <v>5.773159728050814e-15</v>
       </c>
       <c r="W2" t="n">
         <v>1.540280280280335</v>
